--- a/website/content/filipijnenOverzicht.xlsx
+++ b/website/content/filipijnenOverzicht.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Documents\Sander\Sander_Studie\GitHubRepository_sanderdedijk\sander_public\website\content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c67a1c0d37c7f52/Documents/Sander/Sander_Studie/GitHubRepository_sanderdedijk/sander_public/website/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{401D5ACA-6D02-4BEA-98D9-60552A1A0757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{B0599C28-D036-44E0-91FA-8840F9BC97D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAD34009-D8E1-4E33-8B9A-30E31239B4FF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{207003B1-9A2D-408E-A942-89F76EFEE7EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{207003B1-9A2D-408E-A942-89F76EFEE7EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,162 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sander van Dijk</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{059B5AAE-E915-4546-9DBD-B7A531BCFBA2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Sander van Dijk
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Geld terug bij annuleren kan, maar kost € 190,- pp per reis, dus bij alle vluchten, totaal € 1.900,-</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{86D1E623-81DA-4C88-B99F-45FE1CE0C127}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sander van Dijk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Dit is een soort van annuleringsverzekering via Supersaver.nl
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{21557CF3-EC8C-4C12-BAF8-9B0F68519E4B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sander van Dijk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+gratis indien &gt; 3 dagen v.t.v anders 80 uisd per vlucht p.p., dus 1600 usd totaal.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <si>
+    <t>Emirates</t>
+  </si>
+  <si>
+    <t>Ethihad Airways</t>
+  </si>
+  <si>
+    <t>Gulf Air</t>
+  </si>
+  <si>
+    <t>Japan Airlines</t>
+  </si>
+  <si>
+    <t>KLM</t>
+  </si>
+  <si>
+    <t>Korean Air</t>
+  </si>
+  <si>
+    <t>Malaysia Airlines</t>
+  </si>
+  <si>
+    <t>Qatar Airways</t>
+  </si>
+  <si>
+    <t>Saudia</t>
+  </si>
+  <si>
+    <t>Singapore Airlines</t>
+  </si>
+  <si>
+    <t>Turkisch Airlines</t>
+  </si>
+  <si>
+    <t>Chine Airlines</t>
+  </si>
+  <si>
+    <t>Maatschappijen
+Amsterdam - Manila</t>
+  </si>
+  <si>
+    <t>extra kosten Flex:</t>
+  </si>
+  <si>
+    <t>vlucht doel data Flex</t>
+  </si>
+  <si>
+    <t>vlucht in feb. Flex ticket</t>
+  </si>
+  <si>
+    <t>vlucht in feb. Standaard ticket</t>
+  </si>
+  <si>
+    <t>vlucht doel data stand.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>zie opm.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,16 +197,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -61,14 +248,258 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,13 +811,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E884CB-0DB9-4D07-959B-9C136C1DB636}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E884CB-0DB9-4D07-959B-9C136C1DB636}">
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.140625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="8" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="23"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="24"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3">
+        <v>10981.2</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <f>C7-D7</f>
+        <v>689</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9696.2999999999993</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9007.2999999999993</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="13">
+        <f>G7-H7</f>
+        <v>679</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5574.3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4895.3</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1552.35</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10100</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>